--- a/users.xlsx
+++ b/users.xlsx
@@ -105,14 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,148 +561,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>用户名</t>
   </si>
@@ -35,64 +35,106 @@
     <t>密码</t>
   </si>
   <si>
-    <t>李玉兰</t>
-  </si>
-  <si>
-    <t>KAwEQFLH</t>
-  </si>
-  <si>
-    <t>邵秀华</t>
-  </si>
-  <si>
-    <t>vP3IYb55</t>
-  </si>
-  <si>
-    <t>李莉</t>
-  </si>
-  <si>
-    <t>dHWnqVyU</t>
-  </si>
-  <si>
-    <t>郑桂花</t>
-  </si>
-  <si>
-    <t>s4nd155o</t>
-  </si>
-  <si>
-    <t>黄淑珍</t>
-  </si>
-  <si>
-    <t>yLxH14Ty</t>
-  </si>
-  <si>
-    <t>盛丹</t>
-  </si>
-  <si>
-    <t>51uAib5U</t>
-  </si>
-  <si>
-    <t>王文</t>
-  </si>
-  <si>
-    <t>KfEbfnpn</t>
-  </si>
-  <si>
-    <t>尚波</t>
-  </si>
-  <si>
-    <t>9g2vDvEc</t>
-  </si>
-  <si>
-    <t>夏亮</t>
-  </si>
-  <si>
-    <t>0q0gkC5K</t>
-  </si>
-  <si>
-    <t>包磊</t>
-  </si>
-  <si>
-    <t>dBVN50jk</t>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>钱慧</t>
+  </si>
+  <si>
+    <t>2fHPIsjH</t>
+  </si>
+  <si>
+    <t>xiuying22@example.net</t>
+  </si>
+  <si>
+    <t>朱玉兰</t>
+  </si>
+  <si>
+    <t>0GK2Pq1X</t>
+  </si>
+  <si>
+    <t>wyan@example.org</t>
+  </si>
+  <si>
+    <t>梁颖</t>
+  </si>
+  <si>
+    <t>TinzOvzq</t>
+  </si>
+  <si>
+    <t>fang45@example.net</t>
+  </si>
+  <si>
+    <t>何桂珍</t>
+  </si>
+  <si>
+    <t>4aYnXBdD</t>
+  </si>
+  <si>
+    <t>yonglong@example.com</t>
+  </si>
+  <si>
+    <t>岳桂芝</t>
+  </si>
+  <si>
+    <t>dkcQFSe6</t>
+  </si>
+  <si>
+    <t>zhanglei@example.org</t>
+  </si>
+  <si>
+    <t>胡玉珍</t>
+  </si>
+  <si>
+    <t>X38h342D</t>
+  </si>
+  <si>
+    <t>chaosong@example.com</t>
+  </si>
+  <si>
+    <t>王秀兰</t>
+  </si>
+  <si>
+    <t>E0yfJW5e</t>
+  </si>
+  <si>
+    <t>pangang@example.com</t>
+  </si>
+  <si>
+    <t>李冬梅</t>
+  </si>
+  <si>
+    <t>ruu1CyzD</t>
+  </si>
+  <si>
+    <t>gang11@example.net</t>
+  </si>
+  <si>
+    <t>徐莉</t>
+  </si>
+  <si>
+    <t>ML8ZORja</t>
+  </si>
+  <si>
+    <t>yan35@example.net</t>
+  </si>
+  <si>
+    <t>徐桂英</t>
+  </si>
+  <si>
+    <t>rC0lDFip</t>
+  </si>
+  <si>
+    <t>swang@example.com</t>
+  </si>
+  <si>
+    <t>杨启帆</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>yangqifanbq@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -561,148 +603,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,100 +1096,144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>用户名</t>
   </si>
@@ -131,10 +131,16 @@
     <t>杨启帆</t>
   </si>
   <si>
+    <t>222222222111</t>
+  </si>
+  <si>
+    <t>yangqifanbq@gmail.com</t>
+  </si>
+  <si>
+    <t>杨启帆111</t>
+  </si>
+  <si>
     <t>123</t>
-  </si>
-  <si>
-    <t>yangqifanbq@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -750,6 +756,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1096,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1229,10 +1236,21 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14325" windowHeight="10800"/>
+    <workbookView windowWidth="24000" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14325" windowHeight="10800"/>
+    <workbookView windowWidth="24000" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="11175"/>
+    <workbookView windowWidth="14325" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>用户名</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2fHPIsjH</t>
   </si>
   <si>
-    <t>xiuying22@example.net</t>
+    <t>yangqifanbq@gmail.com</t>
   </si>
   <si>
     <t>朱玉兰</t>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>222222222111</t>
-  </si>
-  <si>
-    <t>yangqifanbq@gmail.com</t>
   </si>
   <si>
     <t>杨启帆111</t>
@@ -754,8 +751,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1129,7 +1129,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1236,25 +1236,28 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="yangqifanbq@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
